--- a/src/재난-집계-통합.xlsx
+++ b/src/재난-집계-통합.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DataScience\[Git-Duckfin] Selection2024\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F58CB92-A1EB-4912-890C-F76FBC05E83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C6F492-B120-4ED9-BD82-C04E2979102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>date</t>
   </si>
   <si>
+    <t>감사원 AND  ("권익위")</t>
+  </si>
+  <si>
+    <t>선거 AND  ("감사원")</t>
+  </si>
+  <si>
     <t>의대 증원</t>
   </si>
   <si>
@@ -34,6 +40,9 @@
     <t>이태원 참사</t>
   </si>
   <si>
+    <t>후쿠시마 AND  ("오염수")</t>
+  </si>
+  <si>
     <t>양평 고속도로</t>
   </si>
   <si>
@@ -56,9 +65,6 @@
   </si>
   <si>
     <t>고발사주</t>
-  </si>
-  <si>
-    <t>후쿠시마 AND  ("오염수")</t>
   </si>
   <si>
     <t>20220930</t>
@@ -665,58 +671,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -740,24 +752,30 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>58</v>
+      </c>
+      <c r="K2">
         <v>5</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>8</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>28</v>
-      </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>22</v>
+      </c>
+      <c r="O2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -781,24 +799,30 @@
         <v>5</v>
       </c>
       <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>55</v>
+      </c>
+      <c r="K3">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>8</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>24</v>
-      </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>68</v>
+      </c>
+      <c r="O3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -822,24 +846,30 @@
         <v>3</v>
       </c>
       <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
         <v>8</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>6</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>11</v>
-      </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>17</v>
+      </c>
+      <c r="O4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -863,24 +893,30 @@
         <v>6</v>
       </c>
       <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>23</v>
+      </c>
+      <c r="K5">
         <v>7</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>16</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>8</v>
-      </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>91</v>
+      </c>
+      <c r="O5">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -904,24 +940,30 @@
         <v>4</v>
       </c>
       <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>20</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>12</v>
       </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -945,24 +987,30 @@
         <v>5</v>
       </c>
       <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>11</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>18</v>
       </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -986,24 +1034,30 @@
         <v>26</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>20</v>
       </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
+      <c r="N8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1027,24 +1081,30 @@
         <v>37</v>
       </c>
       <c r="I9">
+        <v>17</v>
+      </c>
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="J9">
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
         <v>12</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>37</v>
       </c>
-      <c r="L9">
-        <v>17</v>
-      </c>
-      <c r="M9">
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1068,24 +1128,30 @@
         <v>2</v>
       </c>
       <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="J10">
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
         <v>10</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>10</v>
       </c>
-      <c r="L10">
-        <v>15</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1109,24 +1175,30 @@
         <v>2</v>
       </c>
       <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>3</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>6</v>
       </c>
-      <c r="L11">
-        <v>15</v>
-      </c>
-      <c r="M11">
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1150,24 +1222,30 @@
         <v>8</v>
       </c>
       <c r="I12">
+        <v>41</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>9</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>10</v>
       </c>
-      <c r="L12">
-        <v>41</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>14</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1191,24 +1269,30 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
         <v>40</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>4</v>
       </c>
-      <c r="L13">
-        <v>132</v>
-      </c>
-      <c r="M13">
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="O13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>25</v>
@@ -1232,24 +1316,30 @@
         <v>5</v>
       </c>
       <c r="I14">
+        <v>203</v>
+      </c>
+      <c r="J14">
         <v>13</v>
       </c>
-      <c r="J14">
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
         <v>27</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>8</v>
       </c>
-      <c r="L14">
-        <v>203</v>
-      </c>
-      <c r="M14">
+      <c r="N14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -1273,24 +1363,30 @@
         <v>4</v>
       </c>
       <c r="I15">
+        <v>106</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
         <v>10</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>90</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>5</v>
       </c>
-      <c r="L15">
-        <v>106</v>
-      </c>
-      <c r="M15">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>33</v>
@@ -1314,24 +1410,30 @@
         <v>1</v>
       </c>
       <c r="I16">
+        <v>154</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
         <v>5</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>51</v>
-      </c>
-      <c r="K16">
-        <v>7</v>
-      </c>
-      <c r="L16">
-        <v>154</v>
       </c>
       <c r="M16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -1355,24 +1457,30 @@
         <v>4</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="J17">
         <v>8</v>
       </c>
       <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
         <v>33</v>
       </c>
-      <c r="L17">
-        <v>137</v>
-      </c>
-      <c r="M17">
+      <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>22</v>
@@ -1396,24 +1504,30 @@
         <v>4</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>6</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>17</v>
       </c>
-      <c r="L18">
-        <v>61</v>
-      </c>
-      <c r="M18">
+      <c r="N18">
+        <v>8</v>
+      </c>
+      <c r="O18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -1437,24 +1551,30 @@
         <v>16</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="J19">
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>18</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>17</v>
       </c>
-      <c r="L19">
-        <v>169</v>
-      </c>
-      <c r="M19">
+      <c r="N19">
+        <v>8</v>
+      </c>
+      <c r="O19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>14</v>
@@ -1478,24 +1598,30 @@
         <v>11</v>
       </c>
       <c r="I20">
+        <v>93</v>
+      </c>
+      <c r="J20">
+        <v>12</v>
+      </c>
+      <c r="K20">
         <v>16</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>17</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>42</v>
       </c>
-      <c r="L20">
-        <v>93</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>12</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>14</v>
@@ -1519,24 +1645,30 @@
         <v>8</v>
       </c>
       <c r="I21">
+        <v>75</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
         <v>11</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>16</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>75</v>
-      </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>35</v>
@@ -1560,24 +1692,30 @@
         <v>9</v>
       </c>
       <c r="I22">
+        <v>50</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
         <v>4</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>24</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>20</v>
       </c>
-      <c r="L22">
-        <v>50</v>
-      </c>
-      <c r="M22">
+      <c r="N22">
+        <v>15</v>
+      </c>
+      <c r="O22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>11</v>
@@ -1601,24 +1739,30 @@
         <v>4</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
         <v>9</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>13</v>
       </c>
-      <c r="L23">
-        <v>43</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>13</v>
@@ -1642,24 +1786,30 @@
         <v>15</v>
       </c>
       <c r="I24">
+        <v>46</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24">
         <v>4</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>5</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>12</v>
       </c>
-      <c r="L24">
-        <v>46</v>
-      </c>
-      <c r="M24">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1683,24 +1833,30 @@
         <v>5</v>
       </c>
       <c r="I25">
+        <v>60</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
         <v>5</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>10</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>4</v>
       </c>
-      <c r="L25">
-        <v>60</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1724,24 +1880,30 @@
         <v>3</v>
       </c>
       <c r="I26">
+        <v>70</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
         <v>6</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>27</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>12</v>
       </c>
-      <c r="L26">
-        <v>70</v>
-      </c>
-      <c r="M26">
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1765,24 +1927,30 @@
         <v>11</v>
       </c>
       <c r="I27">
+        <v>38</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
         <v>19</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>9</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>31</v>
       </c>
-      <c r="L27">
-        <v>38</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>20</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -1806,24 +1974,30 @@
         <v>16</v>
       </c>
       <c r="I28">
+        <v>38</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
         <v>11</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>32</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>23</v>
       </c>
-      <c r="L28">
-        <v>38</v>
-      </c>
-      <c r="M28">
+      <c r="N28">
+        <v>21</v>
+      </c>
+      <c r="O28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>13</v>
@@ -1847,24 +2021,30 @@
         <v>18</v>
       </c>
       <c r="I29">
+        <v>35</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
         <v>5</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>21</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>26</v>
       </c>
-      <c r="L29">
-        <v>35</v>
-      </c>
-      <c r="M29">
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1888,24 +2068,30 @@
         <v>7</v>
       </c>
       <c r="I30">
+        <v>378</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
         <v>3</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>26</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>59</v>
       </c>
-      <c r="L30">
-        <v>378</v>
-      </c>
-      <c r="M30">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>11</v>
@@ -1929,24 +2115,30 @@
         <v>5</v>
       </c>
       <c r="I31">
+        <v>295</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>23</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>11</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>26</v>
       </c>
-      <c r="L31">
-        <v>295</v>
-      </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>17</v>
@@ -1970,24 +2162,30 @@
         <v>3</v>
       </c>
       <c r="I32">
+        <v>144</v>
+      </c>
+      <c r="J32">
+        <v>14</v>
+      </c>
+      <c r="K32">
         <v>18</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>12</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>13</v>
       </c>
-      <c r="L32">
-        <v>144</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>18</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>17</v>
@@ -2011,24 +2209,30 @@
         <v>11</v>
       </c>
       <c r="I33">
+        <v>110</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33">
         <v>11</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>16</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>22</v>
       </c>
-      <c r="L33">
-        <v>110</v>
-      </c>
-      <c r="M33">
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>14</v>
@@ -2052,24 +2256,30 @@
         <v>5</v>
       </c>
       <c r="I34">
+        <v>74</v>
+      </c>
+      <c r="J34">
+        <v>19</v>
+      </c>
+      <c r="K34">
         <v>7</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>11</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>41</v>
       </c>
-      <c r="L34">
-        <v>74</v>
-      </c>
-      <c r="M34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -2093,24 +2303,30 @@
         <v>19</v>
       </c>
       <c r="I35">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="K35">
         <v>14</v>
       </c>
       <c r="L35">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="M35">
+        <v>14</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>20</v>
@@ -2134,24 +2350,30 @@
         <v>2</v>
       </c>
       <c r="I36">
+        <v>74</v>
+      </c>
+      <c r="J36">
+        <v>147</v>
+      </c>
+      <c r="K36">
         <v>9</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>146</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>3</v>
       </c>
-      <c r="L36">
-        <v>74</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>54</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>47</v>
@@ -2175,24 +2397,30 @@
         <v>1</v>
       </c>
       <c r="I37">
+        <v>61</v>
+      </c>
+      <c r="J37">
+        <v>384</v>
+      </c>
+      <c r="K37">
         <v>28</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>157</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>36</v>
       </c>
-      <c r="L37">
-        <v>61</v>
-      </c>
-      <c r="M37">
+      <c r="N37">
+        <v>139</v>
+      </c>
+      <c r="O37">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>42</v>
@@ -2216,24 +2444,30 @@
         <v>5</v>
       </c>
       <c r="I38">
+        <v>45</v>
+      </c>
+      <c r="J38">
+        <v>244</v>
+      </c>
+      <c r="K38">
         <v>8</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>30</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>13</v>
       </c>
-      <c r="L38">
-        <v>45</v>
-      </c>
-      <c r="M38">
+      <c r="N38">
+        <v>187</v>
+      </c>
+      <c r="O38">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>41</v>
@@ -2257,24 +2491,30 @@
         <v>5</v>
       </c>
       <c r="I39">
+        <v>12</v>
+      </c>
+      <c r="J39">
+        <v>48</v>
+      </c>
+      <c r="K39">
         <v>23</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>60</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>100</v>
       </c>
-      <c r="L39">
-        <v>12</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <v>46</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>51</v>
@@ -2298,24 +2538,30 @@
         <v>11</v>
       </c>
       <c r="I40">
+        <v>52</v>
+      </c>
+      <c r="J40">
+        <v>29</v>
+      </c>
+      <c r="K40">
         <v>14</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>18</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>116</v>
       </c>
-      <c r="L40">
-        <v>52</v>
-      </c>
-      <c r="M40">
+      <c r="N40">
+        <v>54</v>
+      </c>
+      <c r="O40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -2339,24 +2585,30 @@
         <v>5</v>
       </c>
       <c r="I41">
+        <v>42</v>
+      </c>
+      <c r="J41">
+        <v>15</v>
+      </c>
+      <c r="K41">
         <v>6</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>19</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>209</v>
       </c>
-      <c r="L41">
-        <v>42</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <v>15</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>16</v>
@@ -2380,24 +2632,30 @@
         <v>3</v>
       </c>
       <c r="I42">
+        <v>82</v>
+      </c>
+      <c r="J42">
+        <v>61</v>
+      </c>
+      <c r="K42">
         <v>6</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>12</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>20</v>
       </c>
-      <c r="L42">
-        <v>82</v>
-      </c>
-      <c r="M42">
+      <c r="N42">
+        <v>7</v>
+      </c>
+      <c r="O42">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>13</v>
@@ -2421,24 +2679,30 @@
         <v>285</v>
       </c>
       <c r="I43">
+        <v>70</v>
+      </c>
+      <c r="J43">
+        <v>12</v>
+      </c>
+      <c r="K43">
         <v>28</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>6</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>3</v>
       </c>
-      <c r="L43">
-        <v>70</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>4</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>15</v>
@@ -2462,24 +2726,30 @@
         <v>767</v>
       </c>
       <c r="I44">
+        <v>58</v>
+      </c>
+      <c r="J44">
+        <v>28</v>
+      </c>
+      <c r="K44">
         <v>45</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>9</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>117</v>
       </c>
-      <c r="L44">
+      <c r="N44">
+        <v>6</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>58</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>56</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -2503,24 +2773,30 @@
         <v>334</v>
       </c>
       <c r="I45">
+        <v>18</v>
+      </c>
+      <c r="J45">
+        <v>15</v>
+      </c>
+      <c r="K45">
         <v>65</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>11</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>23</v>
       </c>
-      <c r="L45">
-        <v>18</v>
-      </c>
-      <c r="M45">
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>18</v>
@@ -2544,24 +2820,30 @@
         <v>108</v>
       </c>
       <c r="I46">
+        <v>13</v>
+      </c>
+      <c r="J46">
+        <v>7</v>
+      </c>
+      <c r="K46">
         <v>207</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>10</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>5</v>
       </c>
-      <c r="L46">
-        <v>13</v>
-      </c>
-      <c r="M46">
+      <c r="N46">
+        <v>8</v>
+      </c>
+      <c r="O46">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2585,24 +2867,30 @@
         <v>98</v>
       </c>
       <c r="I47">
+        <v>20</v>
+      </c>
+      <c r="J47">
+        <v>31</v>
+      </c>
+      <c r="K47">
         <v>398</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>8</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>6</v>
       </c>
-      <c r="L47">
-        <v>20</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -2626,24 +2914,30 @@
         <v>82</v>
       </c>
       <c r="I48">
+        <v>37</v>
+      </c>
+      <c r="J48">
+        <v>17</v>
+      </c>
+      <c r="K48">
         <v>275</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>83</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>30</v>
       </c>
-      <c r="L48">
-        <v>37</v>
-      </c>
-      <c r="M48">
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -2667,24 +2961,30 @@
         <v>114</v>
       </c>
       <c r="I49">
+        <v>13</v>
+      </c>
+      <c r="J49">
+        <v>13</v>
+      </c>
+      <c r="K49">
         <v>270</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>41</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>90</v>
       </c>
-      <c r="L49">
-        <v>13</v>
-      </c>
-      <c r="M49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>19</v>
@@ -2708,24 +3008,30 @@
         <v>271</v>
       </c>
       <c r="I50">
+        <v>27</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+      <c r="K50">
         <v>371</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>34</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>21</v>
       </c>
-      <c r="L50">
-        <v>27</v>
-      </c>
-      <c r="M50">
+      <c r="N50">
+        <v>40</v>
+      </c>
+      <c r="O50">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -2749,24 +3055,30 @@
         <v>73</v>
       </c>
       <c r="I51">
+        <v>18</v>
+      </c>
+      <c r="J51">
+        <v>16</v>
+      </c>
+      <c r="K51">
         <v>320</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>65</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>4</v>
       </c>
-      <c r="L51">
-        <v>18</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <v>31</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -2790,24 +3102,30 @@
         <v>36</v>
       </c>
       <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>88</v>
+      </c>
+      <c r="K52">
         <v>155</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>36</v>
       </c>
-      <c r="K52">
-        <v>2</v>
-      </c>
-      <c r="L52">
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
         <v>7</v>
       </c>
-      <c r="M52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -2831,24 +3149,30 @@
         <v>41</v>
       </c>
       <c r="I53">
+        <v>71</v>
+      </c>
+      <c r="J53">
+        <v>15</v>
+      </c>
+      <c r="K53">
         <v>101</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>4</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>9</v>
       </c>
-      <c r="L53">
-        <v>71</v>
-      </c>
-      <c r="M53">
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -2872,24 +3196,30 @@
         <v>17</v>
       </c>
       <c r="I54">
+        <v>29</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
         <v>48</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>13</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>10</v>
       </c>
-      <c r="L54">
-        <v>29</v>
-      </c>
-      <c r="M54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <v>7</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>33</v>
@@ -2913,24 +3243,30 @@
         <v>32</v>
       </c>
       <c r="I55">
+        <v>82</v>
+      </c>
+      <c r="J55">
+        <v>20</v>
+      </c>
+      <c r="K55">
         <v>130</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>28</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>6</v>
       </c>
-      <c r="L55">
-        <v>82</v>
-      </c>
-      <c r="M55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55">
+        <v>8</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>552</v>
@@ -2954,24 +3290,30 @@
         <v>28</v>
       </c>
       <c r="I56">
+        <v>62</v>
+      </c>
+      <c r="J56">
+        <v>37</v>
+      </c>
+      <c r="K56">
         <v>108</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>26</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>30</v>
       </c>
-      <c r="L56">
-        <v>62</v>
-      </c>
-      <c r="M56">
+      <c r="N56">
+        <v>36</v>
+      </c>
+      <c r="O56">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>333</v>
@@ -2995,24 +3337,30 @@
         <v>27</v>
       </c>
       <c r="I57">
+        <v>35</v>
+      </c>
+      <c r="J57">
+        <v>16</v>
+      </c>
+      <c r="K57">
         <v>59</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>9</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>98</v>
       </c>
-      <c r="L57">
-        <v>35</v>
-      </c>
-      <c r="M57">
+      <c r="N57">
+        <v>29</v>
+      </c>
+      <c r="O57">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>114</v>
@@ -3039,21 +3387,27 @@
         <v>58</v>
       </c>
       <c r="J58">
+        <v>24</v>
+      </c>
+      <c r="K58">
+        <v>58</v>
+      </c>
+      <c r="L58">
         <v>20</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>244</v>
       </c>
-      <c r="L58">
-        <v>58</v>
-      </c>
-      <c r="M58">
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>78</v>
@@ -3077,24 +3431,30 @@
         <v>12</v>
       </c>
       <c r="I59">
+        <v>62</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59">
         <v>77</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>54</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>25</v>
       </c>
-      <c r="L59">
-        <v>62</v>
-      </c>
-      <c r="M59">
+      <c r="N59">
+        <v>11</v>
+      </c>
+      <c r="O59">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>108</v>
@@ -3118,24 +3478,30 @@
         <v>71</v>
       </c>
       <c r="I60">
+        <v>46</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60">
         <v>38</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>125</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>7</v>
       </c>
-      <c r="L60">
-        <v>46</v>
-      </c>
-      <c r="M60">
+      <c r="N60">
+        <v>8</v>
+      </c>
+      <c r="O60">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>246</v>
@@ -3159,24 +3525,30 @@
         <v>26</v>
       </c>
       <c r="I61">
+        <v>68</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61">
         <v>33</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>461</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>5</v>
       </c>
-      <c r="L61">
-        <v>68</v>
-      </c>
-      <c r="M61">
+      <c r="N61">
+        <v>11</v>
+      </c>
+      <c r="O61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <v>118</v>
@@ -3200,24 +3572,30 @@
         <v>41</v>
       </c>
       <c r="I62">
+        <v>39</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
         <v>55</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>214</v>
       </c>
-      <c r="K62">
-        <v>2</v>
-      </c>
-      <c r="L62">
-        <v>39</v>
-      </c>
       <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>6</v>
+      </c>
+      <c r="O62">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>89</v>
@@ -3241,24 +3619,30 @@
         <v>9</v>
       </c>
       <c r="I63">
+        <v>44</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="K63">
         <v>111</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>135</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>18</v>
       </c>
-      <c r="L63">
-        <v>44</v>
-      </c>
-      <c r="M63">
+      <c r="N63">
+        <v>11</v>
+      </c>
+      <c r="O63">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <v>105</v>
@@ -3282,24 +3666,30 @@
         <v>25</v>
       </c>
       <c r="I64">
+        <v>33</v>
+      </c>
+      <c r="J64">
+        <v>7</v>
+      </c>
+      <c r="K64">
         <v>56</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>56</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>38</v>
       </c>
-      <c r="L64">
-        <v>33</v>
-      </c>
-      <c r="M64">
+      <c r="N64">
+        <v>35</v>
+      </c>
+      <c r="O64">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B65">
         <v>129</v>
@@ -3323,24 +3713,30 @@
         <v>30</v>
       </c>
       <c r="I65">
+        <v>13</v>
+      </c>
+      <c r="J65">
+        <v>6</v>
+      </c>
+      <c r="K65">
         <v>61</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>90</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>57</v>
       </c>
-      <c r="L65">
+      <c r="N65">
         <v>13</v>
       </c>
-      <c r="M65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>40</v>
@@ -3364,24 +3760,30 @@
         <v>14</v>
       </c>
       <c r="I66">
+        <v>15</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
         <v>29</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>20</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>115</v>
       </c>
-      <c r="L66">
-        <v>15</v>
-      </c>
-      <c r="M66">
+      <c r="N66">
+        <v>7</v>
+      </c>
+      <c r="O66">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67">
         <v>31</v>
@@ -3408,21 +3810,27 @@
         <v>25</v>
       </c>
       <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <v>25</v>
+      </c>
+      <c r="L67">
         <v>35</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>128</v>
       </c>
-      <c r="L67">
-        <v>25</v>
-      </c>
-      <c r="M67">
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68">
         <v>52</v>
@@ -3446,24 +3854,30 @@
         <v>22</v>
       </c>
       <c r="I68">
+        <v>21</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+      <c r="K68">
         <v>28</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>60</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>280</v>
       </c>
-      <c r="L68">
-        <v>21</v>
-      </c>
-      <c r="M68">
+      <c r="N68">
+        <v>5</v>
+      </c>
+      <c r="O68">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69">
         <v>63</v>
@@ -3487,24 +3901,30 @@
         <v>26</v>
       </c>
       <c r="I69">
+        <v>47</v>
+      </c>
+      <c r="J69">
+        <v>8</v>
+      </c>
+      <c r="K69">
         <v>78</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>41</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>174</v>
       </c>
-      <c r="L69">
-        <v>47</v>
-      </c>
-      <c r="M69">
+      <c r="N69">
+        <v>7</v>
+      </c>
+      <c r="O69">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>97</v>
@@ -3528,24 +3948,30 @@
         <v>13</v>
       </c>
       <c r="I70">
+        <v>17</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+      <c r="K70">
         <v>23</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>20</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>204</v>
       </c>
-      <c r="L70">
-        <v>17</v>
-      </c>
-      <c r="M70">
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B71">
         <v>131</v>
@@ -3569,24 +3995,30 @@
         <v>13</v>
       </c>
       <c r="I71">
+        <v>20</v>
+      </c>
+      <c r="J71">
+        <v>27</v>
+      </c>
+      <c r="K71">
         <v>54</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>7</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>475</v>
       </c>
-      <c r="L71">
-        <v>20</v>
-      </c>
-      <c r="M71">
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B72">
         <v>700</v>
@@ -3610,24 +4042,30 @@
         <v>7</v>
       </c>
       <c r="I72">
+        <v>49</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+      <c r="K72">
         <v>23</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>7</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>60</v>
       </c>
-      <c r="L72">
-        <v>49</v>
-      </c>
-      <c r="M72">
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73">
         <v>768</v>
@@ -3651,24 +4089,30 @@
         <v>3</v>
       </c>
       <c r="I73">
+        <v>42</v>
+      </c>
+      <c r="J73">
+        <v>14</v>
+      </c>
+      <c r="K73">
         <v>8</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>6</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>21</v>
       </c>
-      <c r="L73">
-        <v>42</v>
-      </c>
-      <c r="M73">
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B74">
         <v>1974</v>
@@ -3692,24 +4136,30 @@
         <v>15</v>
       </c>
       <c r="I74">
+        <v>36</v>
+      </c>
+      <c r="J74">
+        <v>8</v>
+      </c>
+      <c r="K74">
         <v>32</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>18</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>58</v>
       </c>
-      <c r="L74">
-        <v>36</v>
-      </c>
-      <c r="M74">
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75">
         <v>1619</v>
@@ -3733,24 +4183,30 @@
         <v>43</v>
       </c>
       <c r="I75">
+        <v>40</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+      <c r="K75">
         <v>17</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>48</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>14</v>
       </c>
-      <c r="L75">
-        <v>40</v>
-      </c>
-      <c r="M75">
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76">
         <v>1523</v>
@@ -3774,24 +4230,30 @@
         <v>14</v>
       </c>
       <c r="I76">
+        <v>29</v>
+      </c>
+      <c r="J76">
+        <v>16</v>
+      </c>
+      <c r="K76">
         <v>133</v>
       </c>
-      <c r="J76">
+      <c r="L76">
         <v>31</v>
-      </c>
-      <c r="K76">
-        <v>6</v>
-      </c>
-      <c r="L76">
-        <v>29</v>
       </c>
       <c r="M76">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77">
         <v>1139</v>
@@ -3815,24 +4277,30 @@
         <v>3</v>
       </c>
       <c r="I77">
+        <v>21</v>
+      </c>
+      <c r="J77">
+        <v>16</v>
+      </c>
+      <c r="K77">
         <v>500</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>23</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>9</v>
       </c>
-      <c r="L77">
-        <v>21</v>
-      </c>
-      <c r="M77">
+      <c r="N77">
+        <v>5</v>
+      </c>
+      <c r="O77">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78">
         <v>1453</v>
@@ -3856,24 +4324,30 @@
         <v>18</v>
       </c>
       <c r="I78">
+        <v>35</v>
+      </c>
+      <c r="J78">
+        <v>18</v>
+      </c>
+      <c r="K78">
         <v>426</v>
       </c>
-      <c r="J78">
+      <c r="L78">
         <v>19</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>13</v>
       </c>
-      <c r="L78">
-        <v>35</v>
-      </c>
-      <c r="M78">
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>1524</v>
@@ -3897,24 +4371,30 @@
         <v>9</v>
       </c>
       <c r="I79">
+        <v>35</v>
+      </c>
+      <c r="J79">
+        <v>25</v>
+      </c>
+      <c r="K79">
         <v>213</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>16</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>18</v>
       </c>
-      <c r="L79">
-        <v>35</v>
-      </c>
-      <c r="M79">
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80">
         <v>143</v>
@@ -3938,23 +4418,30 @@
         <v>1</v>
       </c>
       <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
         <v>90</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>5</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>5</v>
       </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>